--- a/data/small/l_data01.xlsx
+++ b/data/small/l_data01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA8CCC-C690-44F5-AEF6-AF99FC857657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF74697B-FB83-4EC5-A6E8-9934B0E9560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="236">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,1,1,0,0</t>
-  </si>
-  <si>
     <t>0,-1,0,0,0</t>
   </si>
   <si>
@@ -276,33 +273,18 @@
     <t>0,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,0,-1</t>
   </si>
   <si>
-    <t>1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>-1,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,0</t>
   </si>
   <si>
-    <t>0,0,1,1,0</t>
-  </si>
-  <si>
     <t>-1,0,0,0,1</t>
   </si>
   <si>
@@ -327,54 +309,18 @@
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1</t>
-  </si>
-  <si>
     <t>1,0,0,-1,1</t>
   </si>
   <si>
-    <t>0,0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
-    <t>0,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
     <t>0,0,0,1,-1</t>
   </si>
   <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,-1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,1</t>
   </si>
   <si>
@@ -384,57 +330,15 @@
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>like2</t>
-  </si>
-  <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,0,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,-1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,0,0</t>
-  </si>
-  <si>
-    <t>-1,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
-    <t>-1,0,0,-1,-1</t>
-  </si>
-  <si>
-    <t>0,1,1,0,1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
-    <t>1,1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,-1,1</t>
   </si>
   <si>
-    <t>1,-1,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,0</t>
-  </si>
-  <si>
     <t>0,-1,0,-1,1</t>
   </si>
   <si>
@@ -682,90 +586,6 @@
   </si>
   <si>
     <t>公共体育III</t>
-  </si>
-  <si>
-    <t>曲良东</t>
-  </si>
-  <si>
-    <t>刘美玲</t>
-  </si>
-  <si>
-    <t>龙凤珍</t>
-  </si>
-  <si>
-    <t>钟植任</t>
-  </si>
-  <si>
-    <t>温茜茜</t>
-  </si>
-  <si>
-    <t>韩枫</t>
-  </si>
-  <si>
-    <t>邹强</t>
-  </si>
-  <si>
-    <t>秦董洪</t>
-  </si>
-  <si>
-    <t>徐晨</t>
-  </si>
-  <si>
-    <t>黄华娟</t>
-  </si>
-  <si>
-    <t>张超群</t>
-  </si>
-  <si>
-    <t>陈键</t>
-  </si>
-  <si>
-    <t>鲍冬雪</t>
-  </si>
-  <si>
-    <t>苏伊琳</t>
-  </si>
-  <si>
-    <t>刘洁</t>
-  </si>
-  <si>
-    <t>田蕾</t>
-  </si>
-  <si>
-    <t>黄淑茵</t>
-  </si>
-  <si>
-    <t>刘娜</t>
-  </si>
-  <si>
-    <t>何德牛</t>
-  </si>
-  <si>
-    <t>吴义霞</t>
-  </si>
-  <si>
-    <t>孟华志</t>
-  </si>
-  <si>
-    <t>张秀兰</t>
-  </si>
-  <si>
-    <t>刘景能</t>
-  </si>
-  <si>
-    <t>黄留佳</t>
-  </si>
-  <si>
-    <t>杨蕾蕾</t>
-  </si>
-  <si>
-    <t>梁贤烨</t>
-  </si>
-  <si>
-    <t>宣彦庄</t>
-  </si>
-  <si>
-    <t>周萍</t>
   </si>
   <si>
     <t>小教室</t>
@@ -847,6 +667,84 @@
   <si>
     <t>lc</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,1,1,-1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,1</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1181,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1297,7 +1195,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,7 +1206,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,7 +1217,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,7 +1228,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1239,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1250,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,7 +1261,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1272,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,7 +1283,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2292,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -2332,7 +2230,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2430,7 +2328,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2476,7 +2374,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2490,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2550,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2640,7 +2538,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2670,7 +2568,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2686,7 +2584,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2970,7 +2868,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3030,7 +2928,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -3090,7 +2988,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3106,7 +3004,7 @@
         <v>76</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3120,7 +3018,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3150,7 +3048,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3180,7 +3078,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3240,7 +3138,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -3270,7 +3168,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3438,25 +3336,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3464,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3475,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3486,10 +3384,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3497,10 +3395,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3508,10 +3406,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,10 +3417,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3530,10 +3428,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3541,10 +3439,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3552,10 +3450,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3563,10 +3461,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,10 +3472,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3585,10 +3483,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,10 +3494,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3607,10 +3505,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,10 +3516,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3629,10 +3527,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,10 +3538,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,10 +3549,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3662,10 +3560,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3673,10 +3571,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3684,10 +3582,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,10 +3593,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,10 +3604,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,10 +3615,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,10 +3626,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,10 +3637,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,10 +3648,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,10 +3659,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,10 +3670,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3783,10 +3681,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3794,10 +3692,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,10 +3703,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,10 +3714,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,10 +3725,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,10 +3736,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,10 +3747,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3860,10 +3758,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3871,10 +3769,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,10 +3780,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,10 +3791,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3904,10 +3802,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3915,10 +3813,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3926,10 +3824,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3937,10 +3835,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3948,10 +3846,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,10 +3857,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,10 +3868,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3981,10 +3879,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,10 +3890,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4003,10 +3901,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4014,10 +3912,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4025,10 +3923,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,10 +3934,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4047,10 +3945,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,10 +3956,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4069,10 +3967,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4080,10 +3978,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4091,10 +3989,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4102,10 +4000,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4113,10 +4011,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4124,10 +4022,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4135,10 +4033,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4146,10 +4044,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4157,10 +4055,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4168,10 +4066,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4179,10 +4077,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4190,10 +4088,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4201,10 +4099,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4212,10 +4110,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4223,10 +4121,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,10 +4132,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4245,10 +4143,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4256,10 +4154,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4267,10 +4165,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4278,10 +4176,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,10 +4187,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4300,10 +4198,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4316,48 +4214,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4365,16 +4249,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4382,16 +4260,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4399,16 +4271,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4416,16 +4282,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,16 +4293,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4450,16 +4304,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,16 +4315,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4484,16 +4326,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4501,16 +4337,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,16 +4348,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,16 +4359,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4552,16 +4370,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" t="s">
-        <v>231</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,16 +4381,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4586,237 +4392,153 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/small/l_data01.xlsx
+++ b/data/small/l_data01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF74697B-FB83-4EC5-A6E8-9934B0E9560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECB177-73B5-447E-8E47-15AB18A71C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="247">
   <si>
     <t>id</t>
   </si>
@@ -264,9 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,-1,0,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,0</t>
   </si>
   <si>
@@ -282,12 +279,6 @@
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>0,1,0,0,0</t>
-  </si>
-  <si>
-    <t>-1,0,0,0,1</t>
-  </si>
-  <si>
     <t>0,0,0,-1,0</t>
   </si>
   <si>
@@ -297,27 +288,12 @@
     <t>-1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,-1,0,0,0</t>
-  </si>
-  <si>
     <t>1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
@@ -328,12 +304,6 @@
   </si>
   <si>
     <t>0,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,0,1,0</t>
   </si>
   <si>
     <t>0,0,0,-1,1</t>
@@ -669,42 +639,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,-1,0,0</t>
-  </si>
-  <si>
-    <t>-1,0,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,-1</t>
   </si>
   <si>
     <t>-1,0,-1,0,1</t>
   </si>
   <si>
-    <t>0,-1,1,0,1</t>
-  </si>
-  <si>
     <t>-1,0,-1,0,0</t>
   </si>
   <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
-    <t>-1,-1,0,0,-1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,-1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,0,0,1,0</t>
   </si>
   <si>
-    <t>1,0,-1,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,-1</t>
   </si>
   <si>
@@ -717,34 +666,118 @@
     <t>0,0,-1,1,0</t>
   </si>
   <si>
-    <t>1,0,0,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,0</t>
   </si>
   <si>
     <t>-1,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,-1,-1</t>
-  </si>
-  <si>
     <t>1,0,1,0,-1</t>
   </si>
   <si>
-    <t>0,-1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,1</t>
+    <t>0,-1,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,0</t>
+  </si>
+  <si>
+    <t>0,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,-1</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1214,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1195,7 +1228,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1206,7 +1239,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1217,7 +1250,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,7 +1261,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,7 +1272,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,7 +1283,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1294,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,7 +1305,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1283,7 +1316,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2263,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2328,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2374,7 +2407,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2388,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2448,7 +2481,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2538,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2568,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2584,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2868,7 +2901,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -2928,7 +2961,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -2988,7 +3021,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3004,7 +3037,7 @@
         <v>76</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3018,7 +3051,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3048,7 +3081,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3078,7 +3111,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3138,7 +3171,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -3168,7 +3201,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3337,24 +3370,23 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="B79" sqref="B79:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,10 +3405,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,10 +3427,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,10 +3438,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,10 +3449,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,10 +3460,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,10 +3471,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,10 +3482,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,10 +3493,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +3504,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3515,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3526,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3537,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,7 +3551,7 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +3559,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +3570,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +3581,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +3592,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +3603,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3614,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3625,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3636,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3647,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3658,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,10 +3669,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,10 +3680,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,10 +3691,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,10 +3702,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,10 +3713,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,10 +3724,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,10 +3735,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,10 +3746,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3725,10 +3757,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,10 +3768,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,10 +3779,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3758,10 +3790,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3769,10 +3801,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3780,10 +3812,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,10 +3823,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3802,10 +3834,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,10 +3845,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3824,10 +3856,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,7 +3870,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3846,10 +3878,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,10 +3889,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3868,10 +3900,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,10 +3911,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3890,10 +3922,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,10 +3933,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3912,10 +3944,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,10 +3955,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,10 +3966,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3945,10 +3977,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3956,10 +3988,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3967,10 +3999,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,10 +4010,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,10 +4021,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4000,10 +4032,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4011,10 +4043,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4022,10 +4054,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4033,10 +4065,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,10 +4076,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4055,10 +4087,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4066,10 +4098,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4077,10 +4109,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4088,10 +4120,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4099,10 +4131,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4110,10 +4142,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4121,10 +4153,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4132,10 +4164,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4143,10 +4175,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4154,10 +4186,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4165,10 +4197,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4176,10 +4208,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4187,10 +4219,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4198,10 +4230,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4215,20 +4247,20 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD100"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
@@ -4238,10 +4270,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4249,10 +4281,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4260,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4271,10 +4303,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4282,10 +4314,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,10 +4325,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4304,10 +4336,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4315,10 +4347,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4326,10 +4358,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4337,10 +4369,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4348,10 +4380,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4359,10 +4391,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4370,10 +4402,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4381,10 +4413,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4392,10 +4424,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4403,10 +4435,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4414,10 +4446,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4425,10 +4457,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4436,10 +4468,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4447,10 +4479,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4458,10 +4490,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4469,10 +4501,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4480,10 +4512,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4491,10 +4523,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4502,10 +4534,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4513,10 +4545,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4524,10 +4556,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4535,10 +4567,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
